--- a/WBS With Gantt Chart.xlsx
+++ b/WBS With Gantt Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztm004\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\student.filer.uncp.edu\aei002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
   <si>
     <t>TASK OWNER</t>
   </si>
@@ -216,9 +216,6 @@
     <t>WORK BREAKDOWN STRUCTURE WITH GANTT CHART</t>
   </si>
   <si>
-    <t>CLICK HERE TO CREATE WBS OUTLINE AND DIAGRAM TEMPLATES IN SMARTSHEET</t>
-  </si>
-  <si>
     <t>PROJECT TITLE</t>
   </si>
   <si>
@@ -244,6 +241,69 @@
   </si>
   <si>
     <t>CLICK HERE TO CREATE WBS TEMPLATES WITH GANTT CHART IN SMARTSHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capstone Project </t>
+  </si>
+  <si>
+    <t>Meezy Cutz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayman Ibrahim ; Kierra McCallum ; Zack Munford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 30th, 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Conception &amp; Inititation </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Launch &amp; Execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing and Prototype </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Implementation </t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Updates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Updates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>1 week</t>
   </si>
 </sst>
 </file>
@@ -917,6 +977,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -926,12 +1058,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -941,15 +1067,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,66 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1338,8 +1398,8 @@
   </sheetPr>
   <dimension ref="B1:BP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1425,90 +1485,90 @@
       <c r="BP1" s="28"/>
     </row>
     <row r="2" spans="2:68" s="64" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
     </row>
     <row r="3" spans="2:68" s="64" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
     </row>
     <row r="4" spans="2:68" s="64" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="65"/>
@@ -1521,190 +1581,190 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="88" t="s">
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="91" t="s">
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="94" t="s">
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="95"/>
-      <c r="BJ5" s="95"/>
-      <c r="BK5" s="95"/>
-      <c r="BL5" s="95"/>
-      <c r="BM5" s="95"/>
-      <c r="BN5" s="95"/>
-      <c r="BO5" s="95"/>
-      <c r="BP5" s="96"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="68"/>
     </row>
     <row r="6" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74" t="s">
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="85" t="s">
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86" t="s">
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86" t="s">
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="75" t="s">
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76" t="s">
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76" t="s">
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="97"/>
-      <c r="BB6" s="98" t="s">
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="BC6" s="99"/>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="99"/>
-      <c r="BG6" s="99" t="s">
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+      <c r="BG6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="BH6" s="99"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="99"/>
-      <c r="BK6" s="99"/>
-      <c r="BL6" s="99" t="s">
+      <c r="BH6" s="72"/>
+      <c r="BI6" s="72"/>
+      <c r="BJ6" s="72"/>
+      <c r="BK6" s="72"/>
+      <c r="BL6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="BM6" s="99"/>
-      <c r="BN6" s="99"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="100"/>
+      <c r="BM6" s="72"/>
+      <c r="BN6" s="72"/>
+      <c r="BO6" s="72"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="2:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="72"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1891,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="43"/>
@@ -2545,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="45"/>
@@ -2938,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="45"/>
@@ -3700,7 +3760,7 @@
         <v>4.3</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>58</v>
@@ -3850,163 +3910,147 @@
       <c r="BP32" s="23"/>
     </row>
     <row r="36" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="67"/>
-      <c r="BK36" s="67"/>
-      <c r="BL36" s="67"/>
-      <c r="BM36" s="67"/>
-      <c r="BN36" s="67"/>
-      <c r="BO36" s="67"/>
-      <c r="BP36" s="67"/>
+      <c r="B36" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="91"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="91"/>
+      <c r="AJ36" s="91"/>
+      <c r="AK36" s="91"/>
+      <c r="AL36" s="91"/>
+      <c r="AM36" s="91"/>
+      <c r="AN36" s="91"/>
+      <c r="AO36" s="91"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="91"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="91"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="91"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="91"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="91"/>
+      <c r="BF36" s="91"/>
+      <c r="BG36" s="91"/>
+      <c r="BH36" s="91"/>
+      <c r="BI36" s="91"/>
+      <c r="BJ36" s="91"/>
+      <c r="BK36" s="91"/>
+      <c r="BL36" s="91"/>
+      <c r="BM36" s="91"/>
+      <c r="BN36" s="91"/>
+      <c r="BO36" s="91"/>
+      <c r="BP36" s="91"/>
     </row>
     <row r="37" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="67"/>
-      <c r="BK37" s="67"/>
-      <c r="BL37" s="67"/>
-      <c r="BM37" s="67"/>
-      <c r="BN37" s="67"/>
-      <c r="BO37" s="67"/>
-      <c r="BP37" s="67"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+      <c r="AG37" s="91"/>
+      <c r="AH37" s="91"/>
+      <c r="AI37" s="91"/>
+      <c r="AJ37" s="91"/>
+      <c r="AK37" s="91"/>
+      <c r="AL37" s="91"/>
+      <c r="AM37" s="91"/>
+      <c r="AN37" s="91"/>
+      <c r="AO37" s="91"/>
+      <c r="AP37" s="91"/>
+      <c r="AQ37" s="91"/>
+      <c r="AR37" s="91"/>
+      <c r="AS37" s="91"/>
+      <c r="AT37" s="91"/>
+      <c r="AU37" s="91"/>
+      <c r="AV37" s="91"/>
+      <c r="AW37" s="91"/>
+      <c r="AX37" s="91"/>
+      <c r="AY37" s="91"/>
+      <c r="AZ37" s="91"/>
+      <c r="BA37" s="91"/>
+      <c r="BB37" s="91"/>
+      <c r="BC37" s="91"/>
+      <c r="BD37" s="91"/>
+      <c r="BE37" s="91"/>
+      <c r="BF37" s="91"/>
+      <c r="BG37" s="91"/>
+      <c r="BH37" s="91"/>
+      <c r="BI37" s="91"/>
+      <c r="BJ37" s="91"/>
+      <c r="BK37" s="91"/>
+      <c r="BL37" s="91"/>
+      <c r="BM37" s="91"/>
+      <c r="BN37" s="91"/>
+      <c r="BO37" s="91"/>
+      <c r="BP37" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BB5:BP5"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="X5:AL5"/>
-    <mergeCell ref="AM5:BA5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I5:W5"/>
-    <mergeCell ref="S6:W6"/>
     <mergeCell ref="R2:AL2"/>
     <mergeCell ref="R3:AL3"/>
     <mergeCell ref="B36:BP37"/>
@@ -4023,6 +4067,22 @@
     <mergeCell ref="AM6:AQ6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I5:W5"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="X5:AL5"/>
+    <mergeCell ref="AM5:BA5"/>
+    <mergeCell ref="BB5:BP5"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H32">
     <cfRule type="dataBar" priority="2">
@@ -4076,10 +4136,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:BP37"/>
+  <dimension ref="B1:BP32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:BP37"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4165,90 +4225,98 @@
       <c r="BP1" s="28"/>
     </row>
     <row r="2" spans="2:68" s="64" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
     </row>
     <row r="3" spans="2:68" s="64" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
     </row>
     <row r="4" spans="2:68" s="64" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="65"/>
@@ -4261,190 +4329,190 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="88" t="s">
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="91" t="s">
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="94" t="s">
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="95"/>
-      <c r="BJ5" s="95"/>
-      <c r="BK5" s="95"/>
-      <c r="BL5" s="95"/>
-      <c r="BM5" s="95"/>
-      <c r="BN5" s="95"/>
-      <c r="BO5" s="95"/>
-      <c r="BP5" s="96"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="67"/>
+      <c r="BP5" s="68"/>
     </row>
     <row r="6" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74" t="s">
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="85" t="s">
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86" t="s">
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86" t="s">
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="75" t="s">
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76" t="s">
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76" t="s">
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="97"/>
-      <c r="BB6" s="98" t="s">
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="BC6" s="99"/>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="99"/>
-      <c r="BG6" s="99" t="s">
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+      <c r="BG6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="BH6" s="99"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="99"/>
-      <c r="BK6" s="99"/>
-      <c r="BL6" s="99" t="s">
+      <c r="BH6" s="72"/>
+      <c r="BI6" s="72"/>
+      <c r="BJ6" s="72"/>
+      <c r="BK6" s="72"/>
+      <c r="BL6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="BM6" s="99"/>
-      <c r="BN6" s="99"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="100"/>
+      <c r="BM6" s="72"/>
+      <c r="BN6" s="72"/>
+      <c r="BO6" s="72"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="2:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="78"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="72"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4630,11 +4698,21 @@
       <c r="B8" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="49"/>
+      <c r="C8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="43">
+        <v>42977</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="H8" s="41"/>
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
@@ -4701,13 +4779,23 @@
       <c r="B9" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="44">
+        <v>42970</v>
+      </c>
+      <c r="F9" s="44">
+        <v>42977</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="H9" s="30">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
@@ -4771,14 +4859,26 @@
       <c r="BP9" s="16"/>
     </row>
     <row r="10" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="50"/>
+      <c r="B10" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="44">
+        <v>42977</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
@@ -4842,14 +4942,16 @@
       <c r="BP10" s="16"/>
     </row>
     <row r="11" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>1.3</v>
+      </c>
       <c r="C11" s="32"/>
       <c r="D11" s="29"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="50"/>
       <c r="H11" s="30">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
@@ -4913,14 +5015,16 @@
       <c r="BP11" s="16"/>
     </row>
     <row r="12" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>1.4</v>
+      </c>
       <c r="C12" s="32"/>
       <c r="D12" s="29"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="50"/>
       <c r="H12" s="30">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
@@ -4984,14 +5088,16 @@
       <c r="BP12" s="16"/>
     </row>
     <row r="13" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>1.5</v>
+      </c>
       <c r="C13" s="32"/>
       <c r="D13" s="29"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="50"/>
       <c r="H13" s="30">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
@@ -5055,14 +5161,16 @@
       <c r="BP13" s="16"/>
     </row>
     <row r="14" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
+      <c r="B14" s="54">
+        <v>1.6</v>
+      </c>
       <c r="C14" s="32"/>
       <c r="D14" s="29"/>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="50"/>
       <c r="H14" s="30">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
@@ -5126,14 +5234,16 @@
       <c r="BP14" s="16"/>
     </row>
     <row r="15" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
+      <c r="B15" s="54">
+        <v>1.7</v>
+      </c>
       <c r="C15" s="32"/>
       <c r="D15" s="29"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="50"/>
       <c r="H15" s="30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="14"/>
@@ -5197,8 +5307,12 @@
       <c r="BP15" s="16"/>
     </row>
     <row r="16" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="54">
+        <v>2</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="35"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
@@ -5266,14 +5380,18 @@
       <c r="BP16" s="39"/>
     </row>
     <row r="17" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="29"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="50"/>
       <c r="H17" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
@@ -5337,14 +5455,18 @@
       <c r="BP17" s="16"/>
     </row>
     <row r="18" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D18" s="29"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
       <c r="G18" s="50"/>
       <c r="H18" s="30">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
@@ -5408,8 +5530,12 @@
       <c r="BP18" s="16"/>
     </row>
     <row r="19" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="29"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
@@ -5479,8 +5605,12 @@
       <c r="BP19" s="16"/>
     </row>
     <row r="20" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -5550,8 +5680,12 @@
       <c r="BP20" s="16"/>
     </row>
     <row r="21" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="54">
+        <v>3</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="D21" s="35"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
@@ -5619,7 +5753,9 @@
       <c r="BP21" s="39"/>
     </row>
     <row r="22" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
+      <c r="B22" s="54">
+        <v>3.1</v>
+      </c>
       <c r="C22" s="32"/>
       <c r="D22" s="29"/>
       <c r="E22" s="44"/>
@@ -5690,7 +5826,9 @@
       <c r="BP22" s="16"/>
     </row>
     <row r="23" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
+      <c r="B23" s="54">
+        <v>3.2</v>
+      </c>
       <c r="C23" s="32"/>
       <c r="D23" s="29"/>
       <c r="E23" s="44"/>
@@ -5761,7 +5899,9 @@
       <c r="BP23" s="16"/>
     </row>
     <row r="24" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
+      <c r="B24" s="54">
+        <v>3.3</v>
+      </c>
       <c r="C24" s="33"/>
       <c r="D24" s="29"/>
       <c r="E24" s="44"/>
@@ -5832,7 +5972,9 @@
       <c r="BP24" s="16"/>
     </row>
     <row r="25" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="54">
+        <v>3.4</v>
+      </c>
       <c r="C25" s="33"/>
       <c r="D25" s="29"/>
       <c r="E25" s="44"/>
@@ -5903,7 +6045,9 @@
       <c r="BP25" s="16"/>
     </row>
     <row r="26" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
+      <c r="B26" s="54">
+        <v>3.5</v>
+      </c>
       <c r="C26" s="32"/>
       <c r="D26" s="29"/>
       <c r="E26" s="44"/>
@@ -5974,7 +6118,9 @@
       <c r="BP26" s="16"/>
     </row>
     <row r="27" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
+      <c r="B27" s="54">
+        <v>3.6</v>
+      </c>
       <c r="C27" s="33"/>
       <c r="D27" s="29"/>
       <c r="E27" s="44"/>
@@ -6045,8 +6191,12 @@
       <c r="BP27" s="16"/>
     </row>
     <row r="28" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B28" s="54"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="54">
+        <v>4</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="D28" s="35"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -6115,7 +6265,9 @@
     </row>
     <row r="29" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B29" s="54"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -6186,7 +6338,9 @@
     </row>
     <row r="30" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B30" s="54"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="D30" s="29"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
@@ -6257,7 +6411,9 @@
     </row>
     <row r="31" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B31" s="54"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="D31" s="29"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
@@ -6397,165 +6553,8 @@
       <c r="BO32" s="21"/>
       <c r="BP32" s="23"/>
     </row>
-    <row r="36" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="67"/>
-      <c r="BK36" s="67"/>
-      <c r="BL36" s="67"/>
-      <c r="BM36" s="67"/>
-      <c r="BN36" s="67"/>
-      <c r="BO36" s="67"/>
-      <c r="BP36" s="67"/>
-    </row>
-    <row r="37" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="67"/>
-      <c r="BK37" s="67"/>
-      <c r="BL37" s="67"/>
-      <c r="BM37" s="67"/>
-      <c r="BN37" s="67"/>
-      <c r="BO37" s="67"/>
-      <c r="BP37" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="X5:AL5"/>
-    <mergeCell ref="AM5:BA5"/>
-    <mergeCell ref="BB5:BP5"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="B36:BP37"/>
+  <mergeCells count="31">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:Q2"/>
@@ -6571,6 +6570,22 @@
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="AC6:AG6"/>
     <mergeCell ref="I5:W5"/>
+    <mergeCell ref="X5:AL5"/>
+    <mergeCell ref="AM5:BA5"/>
+    <mergeCell ref="BB5:BP5"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H32">
     <cfRule type="dataBar" priority="1">
@@ -6586,15 +6601,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B36:BP37" r:id="rId1" display="CLICK HERE TO CREATE WBS OUTLINE AND DIAGRAM TEMPLATES IN SMARTSHEET"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:B32" numberStoredAsText="1"/>
+    <ignoredError sqref="B8:B9 B29:B32" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/WBS With Gantt Chart.xlsx
+++ b/WBS With Gantt Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach Munford\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kierra\Documents\ITC 4020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="4635" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WBS with Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="96">
   <si>
     <t>TASK OWNER</t>
   </si>
@@ -270,9 +270,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Projections </t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Launch &amp; Execution </t>
   </si>
   <si>
@@ -304,6 +301,18 @@
   </si>
   <si>
     <t>1 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout Projections </t>
+  </si>
+  <si>
+    <t>Graphic/Media Projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidelines </t>
+  </si>
+  <si>
+    <t>Project Initiaton</t>
   </si>
 </sst>
 </file>
@@ -986,6 +995,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -995,12 +1078,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,15 +1087,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,68 +1102,6 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1409,7 +1418,7 @@
   </sheetPr>
   <dimension ref="B1:BP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1496,90 +1505,90 @@
       <c r="BP1" s="28"/>
     </row>
     <row r="2" spans="2:68" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="67" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
     </row>
     <row r="3" spans="2:68" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="67" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
     </row>
     <row r="4" spans="2:68" s="63" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="64"/>
@@ -1592,190 +1601,190 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="87" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="90" t="s">
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="93" t="s">
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="94"/>
-      <c r="BG5" s="94"/>
-      <c r="BH5" s="94"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="94"/>
-      <c r="BM5" s="94"/>
-      <c r="BN5" s="94"/>
-      <c r="BO5" s="94"/>
-      <c r="BP5" s="95"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="69"/>
     </row>
     <row r="6" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73" t="s">
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84" t="s">
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85" t="s">
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="74" t="s">
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="75"/>
-      <c r="AR6" s="75" t="s">
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75" t="s">
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="97" t="s">
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98" t="s">
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="98"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98" t="s">
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="98"/>
-      <c r="BO6" s="98"/>
-      <c r="BP6" s="99"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="74"/>
     </row>
     <row r="7" spans="2:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
@@ -3921,163 +3930,147 @@
       <c r="BP32" s="23"/>
     </row>
     <row r="36" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="66"/>
-      <c r="BA36" s="66"/>
-      <c r="BB36" s="66"/>
-      <c r="BC36" s="66"/>
-      <c r="BD36" s="66"/>
-      <c r="BE36" s="66"/>
-      <c r="BF36" s="66"/>
-      <c r="BG36" s="66"/>
-      <c r="BH36" s="66"/>
-      <c r="BI36" s="66"/>
-      <c r="BJ36" s="66"/>
-      <c r="BK36" s="66"/>
-      <c r="BL36" s="66"/>
-      <c r="BM36" s="66"/>
-      <c r="BN36" s="66"/>
-      <c r="BO36" s="66"/>
-      <c r="BP36" s="66"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="92"/>
+      <c r="AO36" s="92"/>
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="92"/>
+      <c r="AS36" s="92"/>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
+      <c r="AW36" s="92"/>
+      <c r="AX36" s="92"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="92"/>
+      <c r="BA36" s="92"/>
+      <c r="BB36" s="92"/>
+      <c r="BC36" s="92"/>
+      <c r="BD36" s="92"/>
+      <c r="BE36" s="92"/>
+      <c r="BF36" s="92"/>
+      <c r="BG36" s="92"/>
+      <c r="BH36" s="92"/>
+      <c r="BI36" s="92"/>
+      <c r="BJ36" s="92"/>
+      <c r="BK36" s="92"/>
+      <c r="BL36" s="92"/>
+      <c r="BM36" s="92"/>
+      <c r="BN36" s="92"/>
+      <c r="BO36" s="92"/>
+      <c r="BP36" s="92"/>
     </row>
     <row r="37" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
-      <c r="BA37" s="66"/>
-      <c r="BB37" s="66"/>
-      <c r="BC37" s="66"/>
-      <c r="BD37" s="66"/>
-      <c r="BE37" s="66"/>
-      <c r="BF37" s="66"/>
-      <c r="BG37" s="66"/>
-      <c r="BH37" s="66"/>
-      <c r="BI37" s="66"/>
-      <c r="BJ37" s="66"/>
-      <c r="BK37" s="66"/>
-      <c r="BL37" s="66"/>
-      <c r="BM37" s="66"/>
-      <c r="BN37" s="66"/>
-      <c r="BO37" s="66"/>
-      <c r="BP37" s="66"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="92"/>
+      <c r="AD37" s="92"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="92"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="92"/>
+      <c r="AL37" s="92"/>
+      <c r="AM37" s="92"/>
+      <c r="AN37" s="92"/>
+      <c r="AO37" s="92"/>
+      <c r="AP37" s="92"/>
+      <c r="AQ37" s="92"/>
+      <c r="AR37" s="92"/>
+      <c r="AS37" s="92"/>
+      <c r="AT37" s="92"/>
+      <c r="AU37" s="92"/>
+      <c r="AV37" s="92"/>
+      <c r="AW37" s="92"/>
+      <c r="AX37" s="92"/>
+      <c r="AY37" s="92"/>
+      <c r="AZ37" s="92"/>
+      <c r="BA37" s="92"/>
+      <c r="BB37" s="92"/>
+      <c r="BC37" s="92"/>
+      <c r="BD37" s="92"/>
+      <c r="BE37" s="92"/>
+      <c r="BF37" s="92"/>
+      <c r="BG37" s="92"/>
+      <c r="BH37" s="92"/>
+      <c r="BI37" s="92"/>
+      <c r="BJ37" s="92"/>
+      <c r="BK37" s="92"/>
+      <c r="BL37" s="92"/>
+      <c r="BM37" s="92"/>
+      <c r="BN37" s="92"/>
+      <c r="BO37" s="92"/>
+      <c r="BP37" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BB5:BP5"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="X5:AL5"/>
-    <mergeCell ref="AM5:BA5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I5:W5"/>
-    <mergeCell ref="S6:W6"/>
     <mergeCell ref="R2:AL2"/>
     <mergeCell ref="R3:AL3"/>
     <mergeCell ref="B36:BP37"/>
@@ -4094,6 +4087,22 @@
     <mergeCell ref="AM6:AQ6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I5:W5"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="X5:AL5"/>
+    <mergeCell ref="AM5:BA5"/>
+    <mergeCell ref="BB5:BP5"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H32">
     <cfRule type="dataBar" priority="2">
@@ -4147,10 +4156,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:BP25"/>
+  <dimension ref="B1:BP23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4236,98 +4245,98 @@
       <c r="BP1" s="28"/>
     </row>
     <row r="2" spans="2:68" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="67" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="65" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
     </row>
     <row r="3" spans="2:68" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="67" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="65" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
     </row>
     <row r="4" spans="2:68" s="63" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="64"/>
@@ -4340,190 +4349,190 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="87" t="s">
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="90" t="s">
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="93" t="s">
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="94"/>
-      <c r="BG5" s="94"/>
-      <c r="BH5" s="94"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="94"/>
-      <c r="BM5" s="94"/>
-      <c r="BN5" s="94"/>
-      <c r="BO5" s="94"/>
-      <c r="BP5" s="95"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="68"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="68"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="69"/>
     </row>
     <row r="6" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73" t="s">
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84" t="s">
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85" t="s">
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="74" t="s">
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="75"/>
-      <c r="AR6" s="75" t="s">
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75" t="s">
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="97" t="s">
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98" t="s">
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="98"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98" t="s">
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="98"/>
-      <c r="BO6" s="98"/>
-      <c r="BP6" s="99"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="74"/>
     </row>
     <row r="7" spans="2:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4725,11 +4734,11 @@
         <v>80</v>
       </c>
       <c r="H8" s="41"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -4803,7 +4812,7 @@
         <v>42977</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="30">
         <v>1</v>
@@ -4812,12 +4821,12 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
@@ -4874,7 +4883,7 @@
         <v>1.2</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>77</v>
@@ -4895,12 +4904,12 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -4956,7 +4965,9 @@
       <c r="B11" s="54">
         <v>1.3</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="33" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" s="29" t="s">
         <v>77</v>
       </c>
@@ -4976,12 +4987,12 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
@@ -5037,7 +5048,9 @@
       <c r="B12" s="54">
         <v>1.4</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="D12" s="29" t="s">
         <v>77</v>
       </c>
@@ -5057,12 +5070,12 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
@@ -5118,7 +5131,9 @@
       <c r="B13" s="54">
         <v>1.5</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="29" t="s">
         <v>77</v>
       </c>
@@ -5138,12 +5153,12 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
@@ -5197,90 +5212,86 @@
     </row>
     <row r="14" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="54">
-        <v>1.6</v>
-      </c>
-      <c r="C14" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="44">
-        <v>42977</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BP14" s="16"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="38"/>
+      <c r="BP14" s="39"/>
     </row>
     <row r="15" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="54">
-        <v>1.7</v>
-      </c>
-      <c r="C15" s="32"/>
+        <v>2.1</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="29" t="s">
         <v>77</v>
       </c>
@@ -5300,12 +5311,12 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
@@ -5359,85 +5370,93 @@
     </row>
     <row r="16" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54">
-        <v>2</v>
-      </c>
-      <c r="C16" s="34" t="s">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="38"/>
-      <c r="BM16" s="38"/>
-      <c r="BN16" s="38"/>
-      <c r="BO16" s="38"/>
-      <c r="BP16" s="39"/>
+      <c r="E16" s="44">
+        <v>42977</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="19"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BP16" s="16"/>
     </row>
     <row r="17" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>77</v>
@@ -5458,12 +5477,12 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
@@ -5517,10 +5536,10 @@
     </row>
     <row r="18" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="54">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>77</v>
@@ -5598,332 +5617,328 @@
       <c r="BO18" s="14"/>
       <c r="BP18" s="16"/>
     </row>
-    <row r="19" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B19" s="54">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="44">
-        <v>42977</v>
-      </c>
+      <c r="E19" s="45"/>
       <c r="F19" s="44" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="14"/>
-      <c r="BM19" s="14"/>
-      <c r="BN19" s="14"/>
-      <c r="BO19" s="14"/>
-      <c r="BP19" s="16"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="39"/>
     </row>
-    <row r="20" spans="2:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B20" s="54">
-        <v>2.4</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>91</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="44">
-        <v>42977</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>79</v>
-      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="30">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="19"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="16"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="38"/>
+      <c r="BP20" s="39"/>
     </row>
     <row r="21" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B21" s="54">
-        <v>3</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>83</v>
+      <c r="B21" s="54"/>
+      <c r="C21" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="44" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="44" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="39"/>
+      <c r="H21" s="30">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
+      <c r="BI21" s="19"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="14"/>
+      <c r="BM21" s="14"/>
+      <c r="BN21" s="14"/>
+      <c r="BO21" s="14"/>
+      <c r="BP21" s="16"/>
     </row>
     <row r="22" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B22" s="54">
-        <v>4</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>82</v>
+      <c r="B22" s="54"/>
+      <c r="C22" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>79</v>
+      </c>
       <c r="G22" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="38"/>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="38"/>
-      <c r="BH22" s="38"/>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="38"/>
-      <c r="BK22" s="38"/>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="38"/>
-      <c r="BN22" s="38"/>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="39"/>
+      <c r="H22" s="30">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="16"/>
     </row>
     <row r="23" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
       <c r="C23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>77</v>
@@ -6001,176 +6016,21 @@
       <c r="BO23" s="14"/>
       <c r="BP23" s="16"/>
     </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="18"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="19"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="16"/>
-    </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="R2:AL2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="R3:AL3"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
     <mergeCell ref="AC6:AG6"/>
     <mergeCell ref="I5:W5"/>
     <mergeCell ref="X5:AL5"/>
@@ -6183,22 +6043,15 @@
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="BB6:BF6"/>
     <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="R2:AL2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="R3:AL3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H8:H25">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="H8:H23">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6214,7 +6067,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B8:B9 B23:B25" numberStoredAsText="1"/>
+    <ignoredError sqref="B8:B9 B21:B23" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
@@ -6233,7 +6086,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H25</xm:sqref>
+          <xm:sqref>H8:H23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
